--- a/src/co/jp/part2/UML.xlsx
+++ b/src/co/jp/part2/UML.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\pleiades\workspace\IotaJava_G4\src\co\jp\part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086106CF-C2FF-4AF0-B2D1-986F6F6D8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7D2200-6DF1-461E-92A6-C14FFDF2C7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス" sheetId="3" r:id="rId1"/>
-    <sheet name="予約とキャンセル" sheetId="5" r:id="rId2"/>
-    <sheet name="チェックインとチェックアウト" sheetId="6" r:id="rId3"/>
+    <sheet name="予約" sheetId="5" r:id="rId2"/>
+    <sheet name="キャンセル" sheetId="7" r:id="rId3"/>
+    <sheet name="チェックインとチェックアウト" sheetId="6" r:id="rId4"/>
+    <sheet name="チェックアウト" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2887,7 +2889,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5637016" y="9765774"/>
+          <a:off x="5637016" y="9465592"/>
           <a:ext cx="513743" cy="520568"/>
           <a:chOff x="5743233" y="15074703"/>
           <a:chExt cx="505166" cy="513640"/>
@@ -3680,23 +3682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108362</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>223569</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115899</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="フローチャート: 結合子 102">
+        <xdr:cNvPr id="81" name="正方形/長方形 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1573691-2B4C-4F40-99C1-DC516B2BE889}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8027CFBA-CBDB-4EB8-A69D-70A893B322B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,8 +3706,96 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5598227" y="1071748"/>
-          <a:ext cx="607290" cy="538018"/>
+          <a:off x="4888180" y="7423975"/>
+          <a:ext cx="1974025" cy="727560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Room</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を予約する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 結合子 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEBEC07-052E-4CF5-9125-E0B14994E1BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24234322" y="2204357"/>
+          <a:ext cx="596900" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3748,23 +3838,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>60560</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>102228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>43212</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>311727</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>577</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 105">
+        <xdr:cNvPr id="3" name="グループ化 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE926A1-FCC4-464B-A198-4F31355F1B30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401C22CF-F551-4BEA-BCD1-AD2C7D2762BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,18 +3862,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24756287" y="10747137"/>
-          <a:ext cx="513743" cy="588767"/>
+          <a:off x="9306160" y="9544678"/>
+          <a:ext cx="1303452" cy="584149"/>
           <a:chOff x="5743233" y="15074703"/>
           <a:chExt cx="505166" cy="513640"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="フローチャート: 結合子 103">
+          <xdr:cNvPr id="4" name="フローチャート: 結合子 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E45CC9-1143-7105-30A6-4DA16CA1AC5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5D6A24-92B7-9AED-7F59-47F95CFDB40C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3831,10 +3921,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="フローチャート: 結合子 104">
+          <xdr:cNvPr id="5" name="フローチャート: 結合子 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAAD847-6F38-BBB8-8152-1114AF49F5C8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9611B12B-FE7B-ED6C-D3E0-C43B17E9649D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3887,23 +3977,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>119739</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>182881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228596</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 106">
+        <xdr:cNvPr id="6" name="正方形/長方形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F93989-7CE8-4AA0-881C-1060DCDAD11B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EF46ED-526B-4699-8A4A-8EC166A376F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,8 +4001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4899557" y="2376517"/>
-          <a:ext cx="1967675" cy="727561"/>
+          <a:off x="23551239" y="3497581"/>
+          <a:ext cx="1931307" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3967,23 +4057,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>97968</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>206825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>219890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 107">
+        <xdr:cNvPr id="7" name="正方形/長方形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9937AD8-77D1-4998-A67E-D8B37D2B7B56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A8EE2C-BAFF-453C-85FA-914B8D09C0B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,8 +4081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4877786" y="3533239"/>
-          <a:ext cx="1967675" cy="727560"/>
+          <a:off x="23529468" y="4642757"/>
+          <a:ext cx="1931307" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4047,23 +4137,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>97969</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>206826</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>219890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 108">
+        <xdr:cNvPr id="8" name="正方形/長方形 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F47CA29-E7C8-4FE8-93C0-2B7DDB58B304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295CFCFC-34F7-4378-B91B-3E898989137F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,8 +4161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4877787" y="4687784"/>
-          <a:ext cx="1967675" cy="727561"/>
+          <a:off x="23529469" y="5785757"/>
+          <a:ext cx="1931307" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,35 +4217,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>43540</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>59872</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>182881</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 109">
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77195AAD-FCF8-4F7D-A4E0-C8F25DFBAD2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985E46E4-5F0E-4A74-B616-976253C7849A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="4"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5885540" y="1609766"/>
-          <a:ext cx="16332" cy="766751"/>
+          <a:off x="24516440" y="2737757"/>
+          <a:ext cx="16332" cy="759824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4186,35 +4276,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>21769</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>43540</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 112">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359B8028-AB2B-4BD5-88EB-99702E4FE289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C59DD4-6193-4EBB-8A56-B7C081E57D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="2"/>
-          <a:endCxn id="59" idx="0"/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5863769" y="3104078"/>
-          <a:ext cx="21771" cy="429161"/>
+          <a:off x="24494669" y="4218214"/>
+          <a:ext cx="21771" cy="424543"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4245,35 +4335,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>21769</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>219890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 115">
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6397F2-8185-4AC1-905A-BF9715C5E727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE66C0C-3139-4C36-B4A0-102A7C62F650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="60" idx="0"/>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5863769" y="4260799"/>
-          <a:ext cx="1" cy="426985"/>
+          <a:off x="24494669" y="5363390"/>
+          <a:ext cx="1" cy="422367"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4304,23 +4394,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219033</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>44862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>121061</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9896</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="フローチャート: 判断 123">
+        <xdr:cNvPr id="12" name="フローチャート: 判断 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD1B47E-71C5-45B1-BC0F-F31AE31E9612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2991BF-5C0A-4A40-BAC4-07C9F6F48A77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,8 +4418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23852578" y="7387771"/>
-          <a:ext cx="2291938" cy="657761"/>
+          <a:off x="23390183" y="7017162"/>
+          <a:ext cx="2245178" cy="650834"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4379,35 +4469,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>219890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線矢印コネクタ 132">
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B43B9-1195-440B-B366-2B3DF6325317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3437EE-AC3F-4591-AAEE-C97860F07BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="60" idx="2"/>
+          <a:stCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5863770" y="5415345"/>
-          <a:ext cx="2" cy="516380"/>
+          <a:off x="24494670" y="6506390"/>
+          <a:ext cx="2" cy="509453"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4438,106 +4528,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>108362</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>81066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>223569</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>115899</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="正方形/長方形 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8027CFBA-CBDB-4EB8-A69D-70A893B322B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4888180" y="7423975"/>
-          <a:ext cx="1974025" cy="727560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Room</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を予約する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>39584</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 118">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EFD236-B182-496F-A14E-3AEA6140588F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3DDF50-1F69-4F8F-BA0B-3D55B10BC503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4545,8 +4552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="24995909" y="8036297"/>
-          <a:ext cx="4948" cy="819067"/>
+          <a:off x="24507536" y="7658761"/>
+          <a:ext cx="4948" cy="1110589"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4577,23 +4584,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>226125</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>75786</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>187481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="正方形/長方形 131">
+        <xdr:cNvPr id="15" name="正方形/長方形 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB81994-5C7C-40E7-8A35-4723C440ADFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016F5001-8E86-468B-A572-3FCA2A7806DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4601,8 +4608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24125216" y="8881012"/>
-          <a:ext cx="1974025" cy="727560"/>
+          <a:off x="23657625" y="8794998"/>
+          <a:ext cx="1932461" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,23 +4659,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>60036</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>176152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>64984</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>71583</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 118">
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7A8C2B-6B83-401C-A499-735BB0561B45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E01ACC8-8E91-49C8-9113-7612DC3C8BC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4676,8 +4683,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="25021309" y="9597243"/>
-          <a:ext cx="4948" cy="819067"/>
+          <a:off x="24532936" y="9504302"/>
+          <a:ext cx="4948" cy="809831"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4708,23 +4715,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>207819</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="组合 107">
+        <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E64045-2A7D-AAE4-E144-21FBC006314C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B243BF3-821B-4A43-8759-27F31DD36D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,23 +4739,23 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25434636" y="7716652"/>
-          <a:ext cx="1974273" cy="3366985"/>
+          <a:off x="10774218" y="6842084"/>
+          <a:ext cx="5133109" cy="3036785"/>
           <a:chOff x="25434636" y="7716652"/>
           <a:chExt cx="1974273" cy="3366985"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="101" name="直接连接符 100">
+          <xdr:cNvPr id="18" name="直接连接符 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7122C2-EA70-1DF3-7939-7397DB755FCF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE0A782-4E52-1EBF-E47B-5EC624D94C3B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="65" idx="3"/>
+            <a:stCxn id="12" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4777,10 +4784,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="104" name="直接连接符 103">
+          <xdr:cNvPr id="19" name="直接连接符 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C11F2F-D251-1819-5484-1E1E9AE703BC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7BF434-6EDD-8BF6-8046-4E533E80657A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4812,10 +4819,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="106" name="直接箭头连接符 105">
+          <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32972DB5-08DE-8D93-583D-760F576B429F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCADDAA8-3296-025E-9D30-379D42298040}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4854,7 +4861,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4950,8 +4957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4505560" y="11509137"/>
-          <a:ext cx="513743" cy="613590"/>
+          <a:off x="4505560" y="11208955"/>
+          <a:ext cx="513743" cy="613591"/>
           <a:chOff x="5743233" y="15074703"/>
           <a:chExt cx="505166" cy="513640"/>
         </a:xfrm>
@@ -5655,331 +5662,6 @@
         <a:xfrm flipH="1">
           <a:off x="4762432" y="10136909"/>
           <a:ext cx="2049386" cy="1314501"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="stealth"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="フローチャート: 結合子 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B422C4E-D2C2-4DDB-94AC-60991651CE5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24234322" y="2509157"/>
-          <a:ext cx="596900" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>199106</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>229228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>181758</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57068</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="グループ化 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B3E76E-FACB-4A78-A0FC-585CAC0328D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="24894833" y="9246228"/>
-          <a:ext cx="513743" cy="520567"/>
-          <a:chOff x="5743233" y="15074703"/>
-          <a:chExt cx="505166" cy="513640"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="フローチャート: 結合子 103">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8070AFFA-620D-DEE0-013B-4049E5EA93AF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5743233" y="15074703"/>
-            <a:ext cx="505166" cy="513640"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="76200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="フローチャート: 結合子 104">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305DE2A1-99FE-F88C-172D-FA58C3015A45}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5845629" y="15185572"/>
-            <a:ext cx="293914" cy="283028"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>43540</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>59872</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182881</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB97533-5585-431A-8ABE-87147A00F76E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="34" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="24516440" y="3042557"/>
-          <a:ext cx="16332" cy="759824"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="stealth"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>154874</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>190432</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>229228</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C79E1F6-3DE0-4D21-9779-4D5EDC54B3E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="36" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25116147" y="8276441"/>
-          <a:ext cx="35558" cy="969787"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7269,25 +6951,30 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>189180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>204024</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>32491</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7949</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 131">
+        <xdr:cNvPr id="2" name="フローチャート: 結合子 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C413A10-C08A-494F-B671-95A0A2CB9B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BC57CE-3428-40B2-8A94-7298862BAC13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7295,8 +6982,333 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24088271" y="7546933"/>
-          <a:ext cx="1967675" cy="727561"/>
+          <a:off x="24234322" y="2204357"/>
+          <a:ext cx="596900" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199106</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181758</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57068</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E85D9CB-DB5B-4B18-8A67-22E95D96AA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11456749" y="8691057"/>
+          <a:ext cx="1307080" cy="510011"/>
+          <a:chOff x="5743233" y="15074703"/>
+          <a:chExt cx="505166" cy="513640"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="フローチャート: 結合子 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDECE3B-E128-B018-47B3-2D12A312A7B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5743233" y="15074703"/>
+            <a:ext cx="505166" cy="513640"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="フローチャート: 結合子 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5AF25F-51DD-252D-EE3D-DD65D90241F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5845629" y="15185572"/>
+            <a:ext cx="293914" cy="283028"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>43540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182881</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211A8131-F8AD-4E2A-AD55-A8D19A02BB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24516440" y="2737757"/>
+          <a:ext cx="16332" cy="759824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154874</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190432</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>229228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25081800-1F7E-4009-9098-A6BD28723117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24627774" y="7896596"/>
+          <a:ext cx="35558" cy="962282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189180</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>204024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>32491</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503C2982-3A99-430C-BAF8-65D68FA038FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23620680" y="7176324"/>
+          <a:ext cx="1926111" cy="718325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7367,34 +7379,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>112979</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>149462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>112981</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>204024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 132">
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B128C1F-6C8F-4CFF-AC6E-1BF372D9D9C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D24C7C1-7CC7-4735-91E1-2442125B633A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="97" idx="0"/>
+          <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25074252" y="7030553"/>
-          <a:ext cx="2" cy="516380"/>
+          <a:off x="24585879" y="6664562"/>
+          <a:ext cx="2" cy="511762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7425,23 +7437,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>234039</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>15471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>77350</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>50304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 106">
+        <xdr:cNvPr id="10" name="正方形/長方形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42AF1B5-E90C-4504-8549-75B7BC0E60FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF3346F-79C9-4599-A837-9235FAD4B385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7449,8 +7461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24133130" y="3894744"/>
-          <a:ext cx="1967675" cy="727560"/>
+          <a:off x="23665539" y="3558771"/>
+          <a:ext cx="1926111" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7505,23 +7517,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>212268</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>17647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>55579</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>52481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 107">
+        <xdr:cNvPr id="11" name="正方形/長方形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5E30AF-2140-4684-BC23-756CE6F15C2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0775BBCB-C701-4EDE-B9C9-29433D02BC82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7529,8 +7541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24111359" y="5051465"/>
-          <a:ext cx="1967675" cy="727561"/>
+          <a:off x="23643768" y="4703947"/>
+          <a:ext cx="1926111" cy="720634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7585,23 +7597,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>212269</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>17647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>55580</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>52480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 108">
+        <xdr:cNvPr id="12" name="正方形/長方形 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930120DC-4925-4C87-8FB6-EE2F392F564D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDDD8E6-B416-47A9-9D83-BF742F2BEF8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7609,8 +7621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24111360" y="6206011"/>
-          <a:ext cx="1967675" cy="727560"/>
+          <a:off x="23643769" y="5846947"/>
+          <a:ext cx="1926111" cy="720633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7665,35 +7677,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>136069</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>50304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>157840</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>17647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 112">
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205415BA-B48C-49C8-9E32-5BACE66E09ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448657E1-DF5C-421D-9F41-B62F328DEA4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="25097342" y="4622304"/>
-          <a:ext cx="21771" cy="429161"/>
+          <a:off x="24608969" y="4279404"/>
+          <a:ext cx="21771" cy="424543"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7724,35 +7736,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>136069</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>52481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>136070</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>17647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 115">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E15778-4213-432D-BF23-0F865C1725AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7939558E-94FB-4768-8D32-DDC853913661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="2"/>
-          <a:endCxn id="17" idx="0"/>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25097342" y="5779026"/>
-          <a:ext cx="1" cy="426985"/>
+          <a:off x="24608969" y="5424581"/>
+          <a:ext cx="1" cy="422366"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8083,7 +8095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD903C4C-E534-4A83-8DE1-C435133C73B0}">
   <dimension ref="D2:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
@@ -8343,10 +8355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEF2C3C-4C77-4357-AEA3-1C5CCF71E184}">
-  <dimension ref="C1:DF51"/>
+  <dimension ref="C1:AX51"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BM33" sqref="BM33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CB3" sqref="CB3:DN48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4140625" defaultRowHeight="18"/>
@@ -8354,7 +8366,7 @@
     <col min="1" max="16384" width="3.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:110" ht="45">
+    <row r="1" spans="3:50" ht="45">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +8374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:110">
+    <row r="3" spans="3:50">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8412,322 +8424,184 @@
       <c r="AW3" s="8"/>
       <c r="AX3" s="9"/>
     </row>
-    <row r="4" spans="3:110">
+    <row r="4" spans="3:50">
       <c r="C4" s="10"/>
       <c r="AX4" s="11"/>
     </row>
-    <row r="5" spans="3:110" ht="41.5">
+    <row r="5" spans="3:50">
       <c r="C5" s="10"/>
       <c r="AX5" s="11"/>
-      <c r="CQ5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:110">
+    </row>
+    <row r="6" spans="3:50">
       <c r="C6" s="10"/>
       <c r="AX6" s="11"/>
-      <c r="CH6" s="7"/>
-      <c r="CI6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
-      <c r="CL6" s="8"/>
-      <c r="CM6" s="8"/>
-      <c r="CN6" s="8"/>
-      <c r="CO6" s="8"/>
-      <c r="CP6" s="8"/>
-      <c r="CQ6" s="8"/>
-      <c r="CR6" s="8"/>
-      <c r="CS6" s="8"/>
-      <c r="CT6" s="8"/>
-      <c r="CU6" s="8"/>
-      <c r="CV6" s="8"/>
-      <c r="CW6" s="8"/>
-      <c r="CX6" s="8"/>
-      <c r="CY6" s="8"/>
-      <c r="CZ6" s="8"/>
-      <c r="DA6" s="8"/>
-      <c r="DB6" s="8"/>
-      <c r="DC6" s="8"/>
-      <c r="DD6" s="8"/>
-      <c r="DE6" s="8"/>
-      <c r="DF6" s="9"/>
-    </row>
-    <row r="7" spans="3:110">
+    </row>
+    <row r="7" spans="3:50">
       <c r="C7" s="10"/>
       <c r="AX7" s="11"/>
-      <c r="CH7" s="10"/>
-      <c r="DF7" s="11"/>
-    </row>
-    <row r="8" spans="3:110">
+    </row>
+    <row r="8" spans="3:50">
       <c r="C8" s="10"/>
       <c r="AX8" s="11"/>
-      <c r="CH8" s="10"/>
-      <c r="DF8" s="11"/>
-    </row>
-    <row r="9" spans="3:110">
+    </row>
+    <row r="9" spans="3:50">
       <c r="C9" s="10"/>
       <c r="AX9" s="11"/>
-      <c r="CH9" s="10"/>
-      <c r="DF9" s="11"/>
-    </row>
-    <row r="10" spans="3:110">
+    </row>
+    <row r="10" spans="3:50">
       <c r="C10" s="10"/>
       <c r="AX10" s="11"/>
-      <c r="CH10" s="10"/>
-      <c r="DF10" s="11"/>
-    </row>
-    <row r="11" spans="3:110">
+    </row>
+    <row r="11" spans="3:50">
       <c r="C11" s="10"/>
       <c r="AX11" s="11"/>
-      <c r="CH11" s="10"/>
-      <c r="DF11" s="11"/>
-    </row>
-    <row r="12" spans="3:110">
+    </row>
+    <row r="12" spans="3:50">
       <c r="C12" s="10"/>
       <c r="AX12" s="11"/>
-      <c r="CH12" s="10"/>
-      <c r="DF12" s="11"/>
-    </row>
-    <row r="13" spans="3:110">
+    </row>
+    <row r="13" spans="3:50">
       <c r="C13" s="10"/>
       <c r="AX13" s="11"/>
-      <c r="CH13" s="10"/>
-      <c r="DF13" s="11"/>
-    </row>
-    <row r="14" spans="3:110">
+    </row>
+    <row r="14" spans="3:50">
       <c r="C14" s="10"/>
       <c r="AX14" s="11"/>
-      <c r="CH14" s="10"/>
-      <c r="DF14" s="11"/>
-    </row>
-    <row r="15" spans="3:110">
+    </row>
+    <row r="15" spans="3:50">
       <c r="C15" s="10"/>
       <c r="AX15" s="11"/>
-      <c r="CH15" s="10"/>
-      <c r="DF15" s="11"/>
-    </row>
-    <row r="16" spans="3:110">
+    </row>
+    <row r="16" spans="3:50">
       <c r="C16" s="10"/>
       <c r="AX16" s="11"/>
-      <c r="CH16" s="10"/>
-      <c r="DF16" s="11"/>
-    </row>
-    <row r="17" spans="3:110">
+    </row>
+    <row r="17" spans="3:50">
       <c r="C17" s="10"/>
       <c r="AX17" s="11"/>
-      <c r="CH17" s="10"/>
-      <c r="DF17" s="11"/>
-    </row>
-    <row r="18" spans="3:110">
+    </row>
+    <row r="18" spans="3:50">
       <c r="C18" s="10"/>
       <c r="AX18" s="11"/>
-      <c r="CH18" s="10"/>
-      <c r="DF18" s="11"/>
-    </row>
-    <row r="19" spans="3:110">
+    </row>
+    <row r="19" spans="3:50">
       <c r="C19" s="10"/>
       <c r="AX19" s="11"/>
-      <c r="CH19" s="10"/>
-      <c r="DF19" s="11"/>
-    </row>
-    <row r="20" spans="3:110">
+    </row>
+    <row r="20" spans="3:50">
       <c r="C20" s="10"/>
       <c r="AX20" s="11"/>
-      <c r="CH20" s="10"/>
-      <c r="DF20" s="11"/>
-    </row>
-    <row r="21" spans="3:110">
+    </row>
+    <row r="21" spans="3:50">
       <c r="C21" s="10"/>
       <c r="AX21" s="11"/>
-      <c r="CH21" s="10"/>
-      <c r="DF21" s="11"/>
-    </row>
-    <row r="22" spans="3:110">
+    </row>
+    <row r="22" spans="3:50">
       <c r="C22" s="10"/>
       <c r="AX22" s="11"/>
-      <c r="CH22" s="10"/>
-      <c r="DF22" s="11"/>
-    </row>
-    <row r="23" spans="3:110">
+    </row>
+    <row r="23" spans="3:50">
       <c r="C23" s="10"/>
       <c r="AX23" s="11"/>
-      <c r="CH23" s="10"/>
-      <c r="DF23" s="11"/>
-    </row>
-    <row r="24" spans="3:110">
+    </row>
+    <row r="24" spans="3:50">
       <c r="C24" s="10"/>
       <c r="AX24" s="11"/>
-      <c r="CH24" s="10"/>
-      <c r="DF24" s="11"/>
-    </row>
-    <row r="25" spans="3:110">
+    </row>
+    <row r="25" spans="3:50">
       <c r="C25" s="10"/>
       <c r="AX25" s="11"/>
-      <c r="CH25" s="10"/>
-      <c r="DF25" s="11"/>
-    </row>
-    <row r="26" spans="3:110">
+    </row>
+    <row r="26" spans="3:50">
       <c r="C26" s="10"/>
       <c r="AX26" s="11"/>
-      <c r="CH26" s="10"/>
-      <c r="DF26" s="11"/>
-    </row>
-    <row r="27" spans="3:110">
+    </row>
+    <row r="27" spans="3:50">
       <c r="C27" s="10"/>
       <c r="AX27" s="11"/>
-      <c r="CH27" s="10"/>
-      <c r="DF27" s="11"/>
-    </row>
-    <row r="28" spans="3:110">
+    </row>
+    <row r="28" spans="3:50">
       <c r="C28" s="10"/>
       <c r="AX28" s="11"/>
-      <c r="CH28" s="10"/>
-      <c r="DF28" s="11"/>
-    </row>
-    <row r="29" spans="3:110">
+    </row>
+    <row r="29" spans="3:50">
       <c r="C29" s="10"/>
       <c r="AX29" s="11"/>
-      <c r="CH29" s="10"/>
-      <c r="DF29" s="11"/>
-    </row>
-    <row r="30" spans="3:110">
+    </row>
+    <row r="30" spans="3:50">
       <c r="C30" s="10"/>
       <c r="AX30" s="11"/>
-      <c r="CH30" s="10"/>
-      <c r="DF30" s="11"/>
-    </row>
-    <row r="31" spans="3:110">
+    </row>
+    <row r="31" spans="3:50">
       <c r="C31" s="10"/>
       <c r="AX31" s="11"/>
-      <c r="CH31" s="10"/>
-      <c r="DF31" s="11"/>
-    </row>
-    <row r="32" spans="3:110">
+    </row>
+    <row r="32" spans="3:50">
       <c r="C32" s="10"/>
       <c r="AX32" s="11"/>
-      <c r="CH32" s="10"/>
-      <c r="DF32" s="11"/>
-    </row>
-    <row r="33" spans="3:110">
+    </row>
+    <row r="33" spans="3:50">
       <c r="C33" s="10"/>
       <c r="AX33" s="11"/>
-      <c r="CH33" s="10"/>
-      <c r="DF33" s="11"/>
-    </row>
-    <row r="34" spans="3:110">
+    </row>
+    <row r="34" spans="3:50">
       <c r="C34" s="10"/>
       <c r="AX34" s="11"/>
-      <c r="CH34" s="10"/>
-      <c r="CR34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="DF34" s="11"/>
-    </row>
-    <row r="35" spans="3:110" ht="41.5">
+    </row>
+    <row r="35" spans="3:50" ht="41.5">
       <c r="C35" s="10"/>
       <c r="X35" s="12"/>
       <c r="AX35" s="11"/>
-      <c r="CH35" s="10"/>
-      <c r="DF35" s="11"/>
-    </row>
-    <row r="36" spans="3:110">
+    </row>
+    <row r="36" spans="3:50">
       <c r="C36" s="10"/>
       <c r="AX36" s="11"/>
-      <c r="CH36" s="10"/>
-      <c r="DF36" s="11"/>
-    </row>
-    <row r="37" spans="3:110">
+    </row>
+    <row r="37" spans="3:50">
       <c r="C37" s="10"/>
       <c r="AX37" s="11"/>
-      <c r="CH37" s="10"/>
-      <c r="DA37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="DF37" s="11"/>
-    </row>
-    <row r="38" spans="3:110">
+    </row>
+    <row r="38" spans="3:50">
       <c r="C38" s="10"/>
       <c r="AX38" s="11"/>
-      <c r="CH38" s="10"/>
-      <c r="DF38" s="11"/>
-    </row>
-    <row r="39" spans="3:110">
+    </row>
+    <row r="39" spans="3:50">
       <c r="C39" s="10"/>
       <c r="AX39" s="11"/>
-      <c r="CH39" s="10"/>
-      <c r="DF39" s="11"/>
-    </row>
-    <row r="40" spans="3:110">
+    </row>
+    <row r="40" spans="3:50">
       <c r="C40" s="10"/>
       <c r="AX40" s="11"/>
-      <c r="CH40" s="10"/>
-      <c r="DF40" s="11"/>
-    </row>
-    <row r="41" spans="3:110">
+    </row>
+    <row r="41" spans="3:50">
       <c r="C41" s="10"/>
       <c r="AX41" s="11"/>
-      <c r="CH41" s="10"/>
-      <c r="CR41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DF41" s="11"/>
-    </row>
-    <row r="42" spans="3:110">
+    </row>
+    <row r="42" spans="3:50">
       <c r="C42" s="10"/>
       <c r="AX42" s="11"/>
-      <c r="CH42" s="10"/>
-      <c r="DF42" s="11"/>
-    </row>
-    <row r="43" spans="3:110">
+    </row>
+    <row r="43" spans="3:50">
       <c r="C43" s="10"/>
       <c r="AX43" s="11"/>
-      <c r="CH43" s="10"/>
-      <c r="DF43" s="11"/>
-    </row>
-    <row r="44" spans="3:110">
+    </row>
+    <row r="44" spans="3:50">
       <c r="C44" s="10"/>
       <c r="AX44" s="11"/>
-      <c r="CH44" s="10"/>
-      <c r="DF44" s="11"/>
-    </row>
-    <row r="45" spans="3:110">
+    </row>
+    <row r="45" spans="3:50">
       <c r="C45" s="10"/>
       <c r="AX45" s="11"/>
-      <c r="CH45" s="13"/>
-      <c r="CI45" s="5"/>
-      <c r="CJ45" s="5"/>
-      <c r="CK45" s="5"/>
-      <c r="CL45" s="5"/>
-      <c r="CM45" s="5"/>
-      <c r="CN45" s="5"/>
-      <c r="CO45" s="5"/>
-      <c r="CP45" s="5"/>
-      <c r="CQ45" s="5"/>
-      <c r="CR45" s="5"/>
-      <c r="CS45" s="5"/>
-      <c r="CT45" s="5"/>
-      <c r="CU45" s="5"/>
-      <c r="CV45" s="5"/>
-      <c r="CW45" s="5"/>
-      <c r="CX45" s="5"/>
-      <c r="CY45" s="5"/>
-      <c r="CZ45" s="5"/>
-      <c r="DA45" s="5"/>
-      <c r="DB45" s="5"/>
-      <c r="DC45" s="5"/>
-      <c r="DD45" s="5"/>
-      <c r="DE45" s="5"/>
-      <c r="DF45" s="14"/>
-    </row>
-    <row r="46" spans="3:110">
+    </row>
+    <row r="46" spans="3:50">
       <c r="C46" s="10"/>
       <c r="AX46" s="11"/>
     </row>
-    <row r="47" spans="3:110">
+    <row r="47" spans="3:50">
       <c r="C47" s="10"/>
       <c r="AX47" s="11"/>
     </row>
-    <row r="48" spans="3:110" ht="56" customHeight="1">
+    <row r="48" spans="3:50" ht="56" customHeight="1">
       <c r="C48" s="13"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8788,11 +8662,1923 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CA2800-DD3D-4FF8-B553-223E8CA76B8D}">
+  <dimension ref="A1:AM46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" ht="41.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C1AEA-4F62-45B8-9700-78E7A16A2A86}">
-  <dimension ref="A1:DG51"/>
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EB32" sqref="EB32"/>
+      <selection activeCell="BY1" sqref="BY1:DM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4140625" defaultRowHeight="18"/>
@@ -8800,7 +10586,7 @@
     <col min="1" max="16384" width="3.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="45">
+    <row r="1" spans="1:43" ht="45">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8808,7 +10594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:43">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8853,74 +10639,35 @@
       <c r="AP3" s="8"/>
       <c r="AQ3" s="9"/>
     </row>
-    <row r="4" spans="1:111">
+    <row r="4" spans="1:43">
       <c r="A4" s="10"/>
       <c r="AQ4" s="11"/>
     </row>
-    <row r="5" spans="1:111" ht="41.5">
+    <row r="5" spans="1:43">
       <c r="A5" s="10"/>
       <c r="AQ5" s="11"/>
-      <c r="CQ5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:111">
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="10"/>
       <c r="AQ6" s="11"/>
     </row>
-    <row r="7" spans="1:111">
+    <row r="7" spans="1:43">
       <c r="A7" s="10"/>
       <c r="AQ7" s="11"/>
-      <c r="CD7" s="7"/>
-      <c r="CE7" s="8"/>
-      <c r="CF7" s="8"/>
-      <c r="CG7" s="8"/>
-      <c r="CH7" s="8"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="8"/>
-      <c r="CM7" s="8"/>
-      <c r="CN7" s="8"/>
-      <c r="CO7" s="8"/>
-      <c r="CP7" s="8"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="8"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="8"/>
-      <c r="CU7" s="8"/>
-      <c r="CV7" s="8"/>
-      <c r="CW7" s="8"/>
-      <c r="CX7" s="8"/>
-      <c r="CY7" s="8"/>
-      <c r="CZ7" s="8"/>
-      <c r="DA7" s="8"/>
-      <c r="DB7" s="8"/>
-      <c r="DC7" s="8"/>
-      <c r="DD7" s="8"/>
-      <c r="DE7" s="8"/>
-      <c r="DF7" s="8"/>
-      <c r="DG7" s="9"/>
-    </row>
-    <row r="8" spans="1:111">
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="10"/>
       <c r="AQ8" s="11"/>
-      <c r="CD8" s="10"/>
-      <c r="DG8" s="11"/>
-    </row>
-    <row r="9" spans="1:111">
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="10"/>
       <c r="AQ9" s="11"/>
-      <c r="CD9" s="10"/>
-      <c r="DG9" s="11"/>
-    </row>
-    <row r="10" spans="1:111">
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="10"/>
       <c r="AQ10" s="11"/>
-      <c r="CD10" s="10"/>
-      <c r="DG10" s="11"/>
-    </row>
-    <row r="11" spans="1:111">
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="10"/>
       <c r="P11" s="1" t="s">
         <v>9</v>
@@ -8929,167 +10676,113 @@
         <v>10</v>
       </c>
       <c r="AQ11" s="11"/>
-      <c r="CD11" s="10"/>
-      <c r="DG11" s="11"/>
-    </row>
-    <row r="12" spans="1:111">
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="10"/>
       <c r="AQ12" s="11"/>
-      <c r="CD12" s="10"/>
-      <c r="DG12" s="11"/>
-    </row>
-    <row r="13" spans="1:111">
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="10"/>
       <c r="AQ13" s="11"/>
-      <c r="CD13" s="10"/>
-      <c r="DG13" s="11"/>
-    </row>
-    <row r="14" spans="1:111">
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="10"/>
       <c r="AQ14" s="11"/>
-      <c r="CD14" s="10"/>
-      <c r="DG14" s="11"/>
-    </row>
-    <row r="15" spans="1:111">
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="10"/>
       <c r="AQ15" s="11"/>
-      <c r="CD15" s="10"/>
-      <c r="DG15" s="11"/>
-    </row>
-    <row r="16" spans="1:111">
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="10"/>
       <c r="AQ16" s="11"/>
-      <c r="CD16" s="10"/>
-      <c r="DG16" s="11"/>
-    </row>
-    <row r="17" spans="1:111">
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="10"/>
       <c r="AQ17" s="11"/>
-      <c r="CD17" s="10"/>
-      <c r="DG17" s="11"/>
-    </row>
-    <row r="18" spans="1:111">
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="10"/>
       <c r="AQ18" s="11"/>
-      <c r="CD18" s="10"/>
-      <c r="DG18" s="11"/>
-    </row>
-    <row r="19" spans="1:111">
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="10"/>
       <c r="AQ19" s="11"/>
-      <c r="CD19" s="10"/>
-      <c r="DG19" s="11"/>
-    </row>
-    <row r="20" spans="1:111">
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="10"/>
       <c r="AQ20" s="11"/>
-      <c r="CD20" s="10"/>
-      <c r="DG20" s="11"/>
-    </row>
-    <row r="21" spans="1:111">
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="10"/>
       <c r="AQ21" s="11"/>
-      <c r="CD21" s="10"/>
-      <c r="DG21" s="11"/>
-    </row>
-    <row r="22" spans="1:111">
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="10"/>
       <c r="AQ22" s="11"/>
-      <c r="CD22" s="10"/>
-      <c r="DG22" s="11"/>
-    </row>
-    <row r="23" spans="1:111">
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="10"/>
       <c r="AQ23" s="11"/>
-      <c r="CD23" s="10"/>
-      <c r="DG23" s="11"/>
-    </row>
-    <row r="24" spans="1:111">
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="10"/>
       <c r="AQ24" s="11"/>
-      <c r="CD24" s="10"/>
-      <c r="DG24" s="11"/>
-    </row>
-    <row r="25" spans="1:111">
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="10"/>
       <c r="AQ25" s="11"/>
-      <c r="CD25" s="10"/>
-      <c r="DG25" s="11"/>
-    </row>
-    <row r="26" spans="1:111">
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="10"/>
       <c r="AQ26" s="11"/>
-      <c r="CD26" s="10"/>
-      <c r="DG26" s="11"/>
-    </row>
-    <row r="27" spans="1:111">
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="10"/>
       <c r="AQ27" s="11"/>
-      <c r="CD27" s="10"/>
-      <c r="DG27" s="11"/>
-    </row>
-    <row r="28" spans="1:111">
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="10"/>
       <c r="AQ28" s="11"/>
-      <c r="CD28" s="10"/>
-      <c r="DG28" s="11"/>
-    </row>
-    <row r="29" spans="1:111">
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="10"/>
       <c r="AQ29" s="11"/>
-      <c r="CD29" s="10"/>
-      <c r="DG29" s="11"/>
-    </row>
-    <row r="30" spans="1:111">
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="10"/>
       <c r="AQ30" s="11"/>
-      <c r="CD30" s="10"/>
-      <c r="DG30" s="11"/>
-    </row>
-    <row r="31" spans="1:111">
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="10"/>
       <c r="AQ31" s="11"/>
-      <c r="CD31" s="10"/>
-      <c r="DG31" s="11"/>
-    </row>
-    <row r="32" spans="1:111">
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="10"/>
       <c r="AQ32" s="11"/>
-      <c r="CD32" s="10"/>
-      <c r="DG32" s="11"/>
-    </row>
-    <row r="33" spans="1:111">
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="10"/>
       <c r="AQ33" s="11"/>
-      <c r="CD33" s="10"/>
-      <c r="DG33" s="11"/>
-    </row>
-    <row r="34" spans="1:111">
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="10"/>
       <c r="AQ34" s="11"/>
-      <c r="CD34" s="10"/>
-      <c r="DG34" s="11"/>
-    </row>
-    <row r="35" spans="1:111" ht="22.5">
+    </row>
+    <row r="35" spans="1:43" ht="22.5">
       <c r="A35" s="10"/>
       <c r="L35" s="15"/>
       <c r="AQ35" s="11"/>
-      <c r="CD35" s="10"/>
-      <c r="DG35" s="11"/>
-    </row>
-    <row r="36" spans="1:111">
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="10"/>
       <c r="AQ36" s="11"/>
-      <c r="CD36" s="10"/>
-      <c r="DG36" s="11"/>
-    </row>
-    <row r="37" spans="1:111">
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="10"/>
       <c r="AQ37" s="11"/>
-      <c r="CD37" s="10"/>
-      <c r="DG37" s="11"/>
-    </row>
-    <row r="38" spans="1:111">
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="10"/>
       <c r="K38" s="1" t="s">
         <v>9</v>
@@ -9098,85 +10791,47 @@
         <v>8</v>
       </c>
       <c r="AQ38" s="11"/>
-      <c r="CD38" s="10"/>
-      <c r="DG38" s="11"/>
-    </row>
-    <row r="39" spans="1:111">
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="10"/>
       <c r="AQ39" s="11"/>
-      <c r="CD39" s="10"/>
-      <c r="DG39" s="11"/>
-    </row>
-    <row r="40" spans="1:111">
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="10"/>
       <c r="AQ40" s="11"/>
-      <c r="CD40" s="10"/>
-      <c r="DG40" s="11"/>
-    </row>
-    <row r="41" spans="1:111">
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="10"/>
       <c r="AQ41" s="11"/>
-      <c r="CD41" s="10"/>
-      <c r="DG41" s="11"/>
-    </row>
-    <row r="42" spans="1:111">
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="10"/>
       <c r="AQ42" s="11"/>
-      <c r="CD42" s="13"/>
-      <c r="CE42" s="5"/>
-      <c r="CF42" s="5"/>
-      <c r="CG42" s="5"/>
-      <c r="CH42" s="5"/>
-      <c r="CI42" s="5"/>
-      <c r="CJ42" s="5"/>
-      <c r="CK42" s="5"/>
-      <c r="CL42" s="5"/>
-      <c r="CM42" s="5"/>
-      <c r="CN42" s="5"/>
-      <c r="CO42" s="5"/>
-      <c r="CP42" s="5"/>
-      <c r="CQ42" s="5"/>
-      <c r="CR42" s="5"/>
-      <c r="CS42" s="5"/>
-      <c r="CT42" s="5"/>
-      <c r="CU42" s="5"/>
-      <c r="CV42" s="5"/>
-      <c r="CW42" s="5"/>
-      <c r="CX42" s="5"/>
-      <c r="CY42" s="5"/>
-      <c r="CZ42" s="5"/>
-      <c r="DA42" s="5"/>
-      <c r="DB42" s="5"/>
-      <c r="DC42" s="5"/>
-      <c r="DD42" s="5"/>
-      <c r="DE42" s="5"/>
-      <c r="DF42" s="5"/>
-      <c r="DG42" s="14"/>
-    </row>
-    <row r="43" spans="1:111">
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="10"/>
       <c r="AQ43" s="11"/>
     </row>
-    <row r="44" spans="1:111">
+    <row r="44" spans="1:43">
       <c r="A44" s="10"/>
       <c r="T44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AQ44" s="11"/>
     </row>
-    <row r="45" spans="1:111">
+    <row r="45" spans="1:43">
       <c r="A45" s="10"/>
       <c r="AQ45" s="11"/>
     </row>
-    <row r="46" spans="1:111">
+    <row r="46" spans="1:43">
       <c r="A46" s="10"/>
       <c r="AQ46" s="11"/>
     </row>
-    <row r="47" spans="1:111">
+    <row r="47" spans="1:43">
       <c r="A47" s="10"/>
       <c r="AQ47" s="11"/>
     </row>
-    <row r="48" spans="1:111">
+    <row r="48" spans="1:43">
       <c r="A48" s="10"/>
       <c r="AQ48" s="11"/>
     </row>
@@ -9238,4 +10893,2044 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7C4847-93A3-4E3F-8B4F-955F4F7C585E}">
+  <dimension ref="A1:AO47"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
+    <row r="5" spans="1:41" ht="41.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+    </row>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+    </row>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+    </row>
+    <row r="44" spans="1:41">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>